--- a/simulation_info.xlsx
+++ b/simulation_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="170">
   <si>
     <t>Method Name</t>
   </si>
@@ -31,85 +31,499 @@
     <t>FASTEST EST-EST</t>
   </si>
   <si>
-    <t>78</t>
+    <t>119</t>
   </si>
   <si>
     <t>BEST EST-EST</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>FIRST EST-EST</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>WORST EST-EST</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>FASTEST EFT-EST</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>FIRST EST-EST</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>WORST EST-EST</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>FASTEST EFT-EST</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>BEST EFT-EST</t>
   </si>
   <si>
-    <t>21</t>
+    <t>94</t>
   </si>
   <si>
     <t>FIRST EFT-EST</t>
   </si>
   <si>
-    <t>3</t>
+    <t>104</t>
   </si>
   <si>
     <t>WORST EFT-EST</t>
   </si>
   <si>
-    <t>205</t>
-  </si>
-  <si>
     <t>FASTEST EFT-EFT</t>
   </si>
   <si>
     <t>BEST EFT-EFT</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>FIRST EFT-EFT</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>WORST EFT-EFT</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>FASTEST EST-EFT</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>BEST EST-EFT</t>
   </si>
   <si>
-    <t>143</t>
+    <t>76</t>
   </si>
   <si>
     <t>FIRST EST-EFT</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>WORST EST-EFT</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>2385</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>2886</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
+  <si>
+    <t>2662</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>3285</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>1826</t>
+  </si>
+  <si>
+    <t>3058</t>
+  </si>
+  <si>
+    <t>3356</t>
+  </si>
+  <si>
+    <t>3453</t>
+  </si>
+  <si>
+    <t>3252</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3926</t>
+  </si>
+  <si>
+    <t>3994</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>4375</t>
+  </si>
+  <si>
+    <t>3509</t>
+  </si>
+  <si>
+    <t>3576</t>
+  </si>
+  <si>
+    <t>3483</t>
+  </si>
+  <si>
+    <t>2620</t>
+  </si>
+  <si>
+    <t>3442</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>2829</t>
+  </si>
+  <si>
+    <t>4272</t>
+  </si>
+  <si>
+    <t>3209</t>
+  </si>
+  <si>
+    <t>4471</t>
+  </si>
+  <si>
+    <t>3997</t>
+  </si>
+  <si>
+    <t>4203</t>
+  </si>
+  <si>
+    <t>3644</t>
+  </si>
+  <si>
+    <t>4627</t>
+  </si>
+  <si>
+    <t>3436</t>
+  </si>
+  <si>
+    <t>3801</t>
+  </si>
+  <si>
+    <t>3497</t>
+  </si>
+  <si>
+    <t>4591</t>
+  </si>
+  <si>
+    <t>3365</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>3510</t>
+  </si>
+  <si>
+    <t>3891</t>
+  </si>
+  <si>
+    <t>3705</t>
+  </si>
+  <si>
+    <t>6309</t>
+  </si>
+  <si>
+    <t>6006</t>
+  </si>
+  <si>
+    <t>6596</t>
+  </si>
+  <si>
+    <t>5855</t>
+  </si>
+  <si>
+    <t>6007</t>
+  </si>
+  <si>
+    <t>5852</t>
+  </si>
+  <si>
+    <t>6561</t>
+  </si>
+  <si>
+    <t>5624</t>
+  </si>
+  <si>
+    <t>5994</t>
+  </si>
+  <si>
+    <t>6165</t>
+  </si>
+  <si>
+    <t>5930</t>
+  </si>
+  <si>
+    <t>6745</t>
+  </si>
+  <si>
+    <t>5645</t>
+  </si>
+  <si>
+    <t>5851</t>
+  </si>
+  <si>
+    <t>5282</t>
+  </si>
+  <si>
+    <t>8423</t>
+  </si>
+  <si>
+    <t>6479</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>7940</t>
+  </si>
+  <si>
+    <t>8754</t>
+  </si>
+  <si>
+    <t>7247</t>
+  </si>
+  <si>
+    <t>8160</t>
+  </si>
+  <si>
+    <t>7852</t>
+  </si>
+  <si>
+    <t>8674</t>
+  </si>
+  <si>
+    <t>7957</t>
+  </si>
+  <si>
+    <t>8551</t>
+  </si>
+  <si>
+    <t>8637</t>
+  </si>
+  <si>
+    <t>8103</t>
+  </si>
+  <si>
+    <t>7447</t>
+  </si>
+  <si>
+    <t>8163</t>
+  </si>
+  <si>
+    <t>7860</t>
+  </si>
+  <si>
+    <t>10265</t>
+  </si>
+  <si>
+    <t>7523</t>
+  </si>
+  <si>
+    <t>9779</t>
+  </si>
+  <si>
+    <t>9845</t>
+  </si>
+  <si>
+    <t>10902</t>
+  </si>
+  <si>
+    <t>8941</t>
+  </si>
+  <si>
+    <t>11303</t>
+  </si>
+  <si>
+    <t>10326</t>
+  </si>
+  <si>
+    <t>9846</t>
+  </si>
+  <si>
+    <t>8692</t>
+  </si>
+  <si>
+    <t>11018</t>
+  </si>
+  <si>
+    <t>9606</t>
+  </si>
+  <si>
+    <t>10520</t>
+  </si>
+  <si>
+    <t>9300</t>
+  </si>
+  <si>
+    <t>10654</t>
+  </si>
+  <si>
+    <t>11201</t>
+  </si>
+  <si>
+    <t>13247</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>12053</t>
+  </si>
+  <si>
+    <t>11852</t>
+  </si>
+  <si>
+    <t>12820</t>
+  </si>
+  <si>
+    <t>10771</t>
+  </si>
+  <si>
+    <t>12729</t>
+  </si>
+  <si>
+    <t>11920</t>
+  </si>
+  <si>
+    <t>12471</t>
+  </si>
+  <si>
+    <t>10292</t>
+  </si>
+  <si>
+    <t>11579</t>
+  </si>
+  <si>
+    <t>11109</t>
+  </si>
+  <si>
+    <t>13154</t>
+  </si>
+  <si>
+    <t>10186</t>
+  </si>
+  <si>
+    <t>12794</t>
+  </si>
+  <si>
+    <t>12104</t>
   </si>
 </sst>
 </file>
@@ -171,13 +585,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1304947</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -195,7 +609,349 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="8001000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15621000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23241000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30861000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38481000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46101000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="53721000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61341000"/>
+          <a:ext cx="10972822" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1304947</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="68961000"/>
           <a:ext cx="10972822" cy="3657607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -493,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B63:E79"/>
+  <dimension ref="B23:E399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,6 +1258,244 @@
     <col min="1" max="51" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>159877</v>
+      </c>
+      <c r="E24">
+        <v>112045</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>44569</v>
+      </c>
+      <c r="E25">
+        <v>155551</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>115247</v>
+      </c>
+      <c r="E26">
+        <v>113554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>66043</v>
+      </c>
+      <c r="E27">
+        <v>145820</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>114705</v>
+      </c>
+      <c r="E28">
+        <v>105687</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>88613</v>
+      </c>
+      <c r="E29">
+        <v>110726</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>72028</v>
+      </c>
+      <c r="E30">
+        <v>155135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>104020</v>
+      </c>
+      <c r="E31">
+        <v>107645</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>114705</v>
+      </c>
+      <c r="E32">
+        <v>105687</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>86055</v>
+      </c>
+      <c r="E33">
+        <v>109338</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>93993</v>
+      </c>
+      <c r="E34">
+        <v>105687</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>104020</v>
+      </c>
+      <c r="E35">
+        <v>107645</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>159877</v>
+      </c>
+      <c r="E36">
+        <v>112045</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>48202</v>
+      </c>
+      <c r="E37">
+        <v>155254</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>115247</v>
+      </c>
+      <c r="E38">
+        <v>113554</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>101043</v>
+      </c>
+      <c r="E39">
+        <v>145443</v>
+      </c>
+    </row>
     <row r="63" spans="2:5">
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -521,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>374091</v>
@@ -535,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D65">
         <v>350602</v>
@@ -549,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>351219</v>
@@ -563,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D67">
         <v>361430</v>
@@ -577,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>252375</v>
@@ -591,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>249928</v>
@@ -605,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>254410</v>
@@ -619,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>441940</v>
@@ -630,10 +1624,10 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D72">
         <v>252375</v>
@@ -644,10 +1638,10 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D73">
         <v>249042</v>
@@ -661,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D74">
         <v>242360</v>
@@ -672,10 +1666,10 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D75">
         <v>363696</v>
@@ -689,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D76">
         <v>339091</v>
@@ -700,10 +1694,10 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D77">
         <v>369172</v>
@@ -714,10 +1708,10 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D78">
         <v>347157</v>
@@ -728,16 +1722,1920 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>346030</v>
       </c>
       <c r="E79">
         <v>141680</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104">
+        <v>690930</v>
+      </c>
+      <c r="E104">
+        <v>668035</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>1015175</v>
+      </c>
+      <c r="E105">
+        <v>466060</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106">
+        <v>1378037</v>
+      </c>
+      <c r="E106">
+        <v>525900</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107">
+        <v>1462817</v>
+      </c>
+      <c r="E107">
+        <v>536113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108">
+        <v>1509363</v>
+      </c>
+      <c r="E108">
+        <v>520758</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109">
+        <v>915060</v>
+      </c>
+      <c r="E109">
+        <v>436132</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110">
+        <v>1309921</v>
+      </c>
+      <c r="E110">
+        <v>508688</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>1094146</v>
+      </c>
+      <c r="E111">
+        <v>392601</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112">
+        <v>1473632</v>
+      </c>
+      <c r="E112">
+        <v>412093</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113">
+        <v>885848</v>
+      </c>
+      <c r="E113">
+        <v>442040</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114">
+        <v>1227995</v>
+      </c>
+      <c r="E114">
+        <v>526318</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115">
+        <v>1582753</v>
+      </c>
+      <c r="E115">
+        <v>572993</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116">
+        <v>1342557</v>
+      </c>
+      <c r="E116">
+        <v>546056</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117">
+        <v>1058439</v>
+      </c>
+      <c r="E117">
+        <v>477147</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118">
+        <v>622349</v>
+      </c>
+      <c r="E118">
+        <v>708359</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119">
+        <v>1486101</v>
+      </c>
+      <c r="E119">
+        <v>514524</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144">
+        <v>3080708</v>
+      </c>
+      <c r="E144">
+        <v>848919</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145">
+        <v>1476973</v>
+      </c>
+      <c r="E145">
+        <v>1071088</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146">
+        <v>2422693</v>
+      </c>
+      <c r="E146">
+        <v>955402</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147">
+        <v>2643725</v>
+      </c>
+      <c r="E147">
+        <v>932245</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148">
+        <v>3092948</v>
+      </c>
+      <c r="E148">
+        <v>838957</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>64</v>
+      </c>
+      <c r="D149">
+        <v>1343985</v>
+      </c>
+      <c r="E149">
+        <v>945612</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150">
+        <v>1838361</v>
+      </c>
+      <c r="E150">
+        <v>893422</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151">
+        <v>2549097</v>
+      </c>
+      <c r="E151">
+        <v>907663</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152">
+        <v>2584716</v>
+      </c>
+      <c r="E152">
+        <v>937966</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153">
+        <v>1992478</v>
+      </c>
+      <c r="E153">
+        <v>819105</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154">
+        <v>2210580</v>
+      </c>
+      <c r="E154">
+        <v>896332</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155">
+        <v>2325415</v>
+      </c>
+      <c r="E155">
+        <v>755918</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>71</v>
+      </c>
+      <c r="D156">
+        <v>2557672</v>
+      </c>
+      <c r="E156">
+        <v>953147</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157">
+        <v>1358942</v>
+      </c>
+      <c r="E157">
+        <v>1073519</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158">
+        <v>2254835</v>
+      </c>
+      <c r="E158">
+        <v>820614</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159">
+        <v>2607100</v>
+      </c>
+      <c r="E159">
+        <v>712104</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184">
+        <v>3760325</v>
+      </c>
+      <c r="E184">
+        <v>847437</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D185">
+        <v>2034563</v>
+      </c>
+      <c r="E185">
+        <v>904176</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>77</v>
+      </c>
+      <c r="D186">
+        <v>3317586</v>
+      </c>
+      <c r="E186">
+        <v>909021</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187">
+        <v>3646075</v>
+      </c>
+      <c r="E187">
+        <v>921278</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>79</v>
+      </c>
+      <c r="D188">
+        <v>3749851</v>
+      </c>
+      <c r="E188">
+        <v>758124</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189">
+        <v>2532544</v>
+      </c>
+      <c r="E189">
+        <v>711678</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>81</v>
+      </c>
+      <c r="D190">
+        <v>3189726</v>
+      </c>
+      <c r="E190">
+        <v>874469</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191">
+        <v>3576416</v>
+      </c>
+      <c r="E191">
+        <v>922088</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" t="s">
+        <v>83</v>
+      </c>
+      <c r="D192">
+        <v>2999037</v>
+      </c>
+      <c r="E192">
+        <v>657239</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193">
+        <v>2431886</v>
+      </c>
+      <c r="E193">
+        <v>844058</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>85</v>
+      </c>
+      <c r="D194">
+        <v>3359689</v>
+      </c>
+      <c r="E194">
+        <v>784354</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195">
+        <v>2422534</v>
+      </c>
+      <c r="E195">
+        <v>850788</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>87</v>
+      </c>
+      <c r="D196">
+        <v>2840726</v>
+      </c>
+      <c r="E196">
+        <v>1031117</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197">
+        <v>2109896</v>
+      </c>
+      <c r="E197">
+        <v>840314</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" t="s">
+        <v>89</v>
+      </c>
+      <c r="D198">
+        <v>3101979</v>
+      </c>
+      <c r="E198">
+        <v>881923</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" t="s">
+        <v>90</v>
+      </c>
+      <c r="D199">
+        <v>2685167</v>
+      </c>
+      <c r="E199">
+        <v>953584</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>91</v>
+      </c>
+      <c r="D224">
+        <v>4086853</v>
+      </c>
+      <c r="E224">
+        <v>841231</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>92</v>
+      </c>
+      <c r="D225">
+        <v>2630761</v>
+      </c>
+      <c r="E225">
+        <v>1100496</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>93</v>
+      </c>
+      <c r="D226">
+        <v>2886879</v>
+      </c>
+      <c r="E226">
+        <v>822960</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>94</v>
+      </c>
+      <c r="D227">
+        <v>4280537</v>
+      </c>
+      <c r="E227">
+        <v>880279</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>95</v>
+      </c>
+      <c r="D228">
+        <v>4011873</v>
+      </c>
+      <c r="E228">
+        <v>832470</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="s">
+        <v>96</v>
+      </c>
+      <c r="D229">
+        <v>2716519</v>
+      </c>
+      <c r="E229">
+        <v>989397</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" t="s">
+        <v>97</v>
+      </c>
+      <c r="D230">
+        <v>2729889</v>
+      </c>
+      <c r="E230">
+        <v>712831</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231">
+        <v>3287790</v>
+      </c>
+      <c r="E231">
+        <v>1014524</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5">
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" t="s">
+        <v>99</v>
+      </c>
+      <c r="D232">
+        <v>3551745</v>
+      </c>
+      <c r="E232">
+        <v>903050</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>100</v>
+      </c>
+      <c r="D233">
+        <v>2647321</v>
+      </c>
+      <c r="E233">
+        <v>972643</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>101</v>
+      </c>
+      <c r="D234">
+        <v>2888170</v>
+      </c>
+      <c r="E234">
+        <v>739394</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" t="s">
+        <v>24</v>
+      </c>
+      <c r="C235" t="s">
+        <v>102</v>
+      </c>
+      <c r="D235">
+        <v>3383397</v>
+      </c>
+      <c r="E235">
+        <v>1004306</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="s">
+        <v>103</v>
+      </c>
+      <c r="D236">
+        <v>4055723</v>
+      </c>
+      <c r="E236">
+        <v>938074</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" t="s">
+        <v>26</v>
+      </c>
+      <c r="C237" t="s">
+        <v>104</v>
+      </c>
+      <c r="D237">
+        <v>2639555</v>
+      </c>
+      <c r="E237">
+        <v>1033811</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" t="s">
+        <v>105</v>
+      </c>
+      <c r="D238">
+        <v>3744287</v>
+      </c>
+      <c r="E238">
+        <v>938300</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" t="s">
+        <v>106</v>
+      </c>
+      <c r="D239">
+        <v>3762345</v>
+      </c>
+      <c r="E239">
+        <v>943437</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>107</v>
+      </c>
+      <c r="D264">
+        <v>5488212</v>
+      </c>
+      <c r="E264">
+        <v>908075</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>108</v>
+      </c>
+      <c r="D265">
+        <v>4177380</v>
+      </c>
+      <c r="E265">
+        <v>944846</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" t="s">
+        <v>109</v>
+      </c>
+      <c r="D266">
+        <v>5103241</v>
+      </c>
+      <c r="E266">
+        <v>837884</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>110</v>
+      </c>
+      <c r="D267">
+        <v>5114955</v>
+      </c>
+      <c r="E267">
+        <v>1009747</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>111</v>
+      </c>
+      <c r="D268">
+        <v>5986865</v>
+      </c>
+      <c r="E268">
+        <v>952326</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" t="s">
+        <v>112</v>
+      </c>
+      <c r="D269">
+        <v>3075044</v>
+      </c>
+      <c r="E269">
+        <v>1028309</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270" t="s">
+        <v>113</v>
+      </c>
+      <c r="D270">
+        <v>4809069</v>
+      </c>
+      <c r="E270">
+        <v>829642</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" t="s">
+        <v>114</v>
+      </c>
+      <c r="D271">
+        <v>5858007</v>
+      </c>
+      <c r="E271">
+        <v>1047530</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" t="s">
+        <v>115</v>
+      </c>
+      <c r="D272">
+        <v>5692240</v>
+      </c>
+      <c r="E272">
+        <v>944056</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" t="s">
+        <v>116</v>
+      </c>
+      <c r="D273">
+        <v>3911907</v>
+      </c>
+      <c r="E273">
+        <v>912334</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" t="s">
+        <v>117</v>
+      </c>
+      <c r="D274">
+        <v>4196435</v>
+      </c>
+      <c r="E274">
+        <v>946718</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275">
+        <v>4477272</v>
+      </c>
+      <c r="E275">
+        <v>762761</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>119</v>
+      </c>
+      <c r="D276">
+        <v>5955206</v>
+      </c>
+      <c r="E276">
+        <v>1059210</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" t="s">
+        <v>26</v>
+      </c>
+      <c r="C277" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277">
+        <v>3416216</v>
+      </c>
+      <c r="E277">
+        <v>1365191</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" t="s">
+        <v>28</v>
+      </c>
+      <c r="C278" t="s">
+        <v>120</v>
+      </c>
+      <c r="D278">
+        <v>4006889</v>
+      </c>
+      <c r="E278">
+        <v>1000690</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" t="s">
+        <v>121</v>
+      </c>
+      <c r="D279">
+        <v>5890347</v>
+      </c>
+      <c r="E279">
+        <v>1114216</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>122</v>
+      </c>
+      <c r="D304">
+        <v>7724590</v>
+      </c>
+      <c r="E304">
+        <v>1084494</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>123</v>
+      </c>
+      <c r="D305">
+        <v>4016280</v>
+      </c>
+      <c r="E305">
+        <v>1476584</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" t="s">
+        <v>124</v>
+      </c>
+      <c r="D306">
+        <v>7362677</v>
+      </c>
+      <c r="E306">
+        <v>1341602</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>125</v>
+      </c>
+      <c r="D307">
+        <v>8880112</v>
+      </c>
+      <c r="E307">
+        <v>1153184</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>126</v>
+      </c>
+      <c r="D308">
+        <v>7474236</v>
+      </c>
+      <c r="E308">
+        <v>930892</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>127</v>
+      </c>
+      <c r="D309">
+        <v>4854676</v>
+      </c>
+      <c r="E309">
+        <v>1366875</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" t="s">
+        <v>128</v>
+      </c>
+      <c r="D310">
+        <v>5482651</v>
+      </c>
+      <c r="E310">
+        <v>1115797</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="B311" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" t="s">
+        <v>129</v>
+      </c>
+      <c r="D311">
+        <v>7751496</v>
+      </c>
+      <c r="E311">
+        <v>1125208</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5">
+      <c r="B312" t="s">
+        <v>19</v>
+      </c>
+      <c r="C312" t="s">
+        <v>130</v>
+      </c>
+      <c r="D312">
+        <v>8031999</v>
+      </c>
+      <c r="E312">
+        <v>946519</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5">
+      <c r="B313" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" t="s">
+        <v>131</v>
+      </c>
+      <c r="D313">
+        <v>4467477</v>
+      </c>
+      <c r="E313">
+        <v>1064148</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" t="s">
+        <v>132</v>
+      </c>
+      <c r="D314">
+        <v>5821865</v>
+      </c>
+      <c r="E314">
+        <v>1008976</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" t="s">
+        <v>133</v>
+      </c>
+      <c r="D315">
+        <v>7896202</v>
+      </c>
+      <c r="E315">
+        <v>959273</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" t="s">
+        <v>134</v>
+      </c>
+      <c r="D316">
+        <v>8772772</v>
+      </c>
+      <c r="E316">
+        <v>1141796</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" t="s">
+        <v>135</v>
+      </c>
+      <c r="D317">
+        <v>5573535</v>
+      </c>
+      <c r="E317">
+        <v>1240539</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318" t="s">
+        <v>28</v>
+      </c>
+      <c r="C318" t="s">
+        <v>136</v>
+      </c>
+      <c r="D318">
+        <v>5759720</v>
+      </c>
+      <c r="E318">
+        <v>1171647</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" t="s">
+        <v>137</v>
+      </c>
+      <c r="D319">
+        <v>6631614</v>
+      </c>
+      <c r="E319">
+        <v>1162449</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="B343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="s">
+        <v>138</v>
+      </c>
+      <c r="D344">
+        <v>11067960</v>
+      </c>
+      <c r="E344">
+        <v>1162220</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s">
+        <v>139</v>
+      </c>
+      <c r="D345">
+        <v>6340362</v>
+      </c>
+      <c r="E345">
+        <v>1702018</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" t="s">
+        <v>140</v>
+      </c>
+      <c r="D346">
+        <v>6766824</v>
+      </c>
+      <c r="E346">
+        <v>1331479</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" t="s">
+        <v>141</v>
+      </c>
+      <c r="D347">
+        <v>10685270</v>
+      </c>
+      <c r="E347">
+        <v>1231694</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>142</v>
+      </c>
+      <c r="D348">
+        <v>8809786</v>
+      </c>
+      <c r="E348">
+        <v>999146</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" t="s">
+        <v>143</v>
+      </c>
+      <c r="D349">
+        <v>5687125</v>
+      </c>
+      <c r="E349">
+        <v>1518586</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" t="s">
+        <v>144</v>
+      </c>
+      <c r="D350">
+        <v>6919207</v>
+      </c>
+      <c r="E350">
+        <v>912113</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="B351" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" t="s">
+        <v>145</v>
+      </c>
+      <c r="D351">
+        <v>8734029</v>
+      </c>
+      <c r="E351">
+        <v>1056418</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="B352" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" t="s">
+        <v>146</v>
+      </c>
+      <c r="D352">
+        <v>10471760</v>
+      </c>
+      <c r="E352">
+        <v>1198171</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="B353" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353" t="s">
+        <v>147</v>
+      </c>
+      <c r="D353">
+        <v>4861172</v>
+      </c>
+      <c r="E353">
+        <v>1519767</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354" t="s">
+        <v>22</v>
+      </c>
+      <c r="C354" t="s">
+        <v>148</v>
+      </c>
+      <c r="D354">
+        <v>7689874</v>
+      </c>
+      <c r="E354">
+        <v>1000617</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" t="s">
+        <v>24</v>
+      </c>
+      <c r="C355" t="s">
+        <v>149</v>
+      </c>
+      <c r="D355">
+        <v>9916323</v>
+      </c>
+      <c r="E355">
+        <v>1234403</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="B356" t="s">
+        <v>25</v>
+      </c>
+      <c r="C356" t="s">
+        <v>150</v>
+      </c>
+      <c r="D356">
+        <v>10385332</v>
+      </c>
+      <c r="E356">
+        <v>1050223</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="B357" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357" t="s">
+        <v>151</v>
+      </c>
+      <c r="D357">
+        <v>5076721</v>
+      </c>
+      <c r="E357">
+        <v>1401388</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="B358" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" t="s">
+        <v>152</v>
+      </c>
+      <c r="D358">
+        <v>7741601</v>
+      </c>
+      <c r="E358">
+        <v>1079788</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="B359" t="s">
+        <v>29</v>
+      </c>
+      <c r="C359" t="s">
+        <v>153</v>
+      </c>
+      <c r="D359">
+        <v>8372281</v>
+      </c>
+      <c r="E359">
+        <v>889916</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5">
+      <c r="B383" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5">
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>154</v>
+      </c>
+      <c r="D384">
+        <v>11825084</v>
+      </c>
+      <c r="E384">
+        <v>903930</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5">
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" t="s">
+        <v>155</v>
+      </c>
+      <c r="D385">
+        <v>7064955</v>
+      </c>
+      <c r="E385">
+        <v>1750172</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5">
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" t="s">
+        <v>156</v>
+      </c>
+      <c r="D386">
+        <v>10179361</v>
+      </c>
+      <c r="E386">
+        <v>1257787</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5">
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>157</v>
+      </c>
+      <c r="D387">
+        <v>12341302</v>
+      </c>
+      <c r="E387">
+        <v>1275749</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5">
+      <c r="B388" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" t="s">
+        <v>158</v>
+      </c>
+      <c r="D388">
+        <v>10667621</v>
+      </c>
+      <c r="E388">
+        <v>1111480</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5">
+      <c r="B389" t="s">
+        <v>14</v>
+      </c>
+      <c r="C389" t="s">
+        <v>159</v>
+      </c>
+      <c r="D389">
+        <v>7143680</v>
+      </c>
+      <c r="E389">
+        <v>1594081</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5">
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C390" t="s">
+        <v>160</v>
+      </c>
+      <c r="D390">
+        <v>9566865</v>
+      </c>
+      <c r="E390">
+        <v>1113832</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5">
+      <c r="B391" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" t="s">
+        <v>161</v>
+      </c>
+      <c r="D391">
+        <v>9587222</v>
+      </c>
+      <c r="E391">
+        <v>1239677</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5">
+      <c r="B392" t="s">
+        <v>19</v>
+      </c>
+      <c r="C392" t="s">
+        <v>162</v>
+      </c>
+      <c r="D392">
+        <v>12798165</v>
+      </c>
+      <c r="E392">
+        <v>1114237</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5">
+      <c r="B393" t="s">
+        <v>20</v>
+      </c>
+      <c r="C393" t="s">
+        <v>163</v>
+      </c>
+      <c r="D393">
+        <v>5622255</v>
+      </c>
+      <c r="E393">
+        <v>1671845</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5">
+      <c r="B394" t="s">
+        <v>22</v>
+      </c>
+      <c r="C394" t="s">
+        <v>164</v>
+      </c>
+      <c r="D394">
+        <v>8146033</v>
+      </c>
+      <c r="E394">
+        <v>1462270</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5">
+      <c r="B395" t="s">
+        <v>24</v>
+      </c>
+      <c r="C395" t="s">
+        <v>165</v>
+      </c>
+      <c r="D395">
+        <v>10398161</v>
+      </c>
+      <c r="E395">
+        <v>1415849</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5">
+      <c r="B396" t="s">
+        <v>25</v>
+      </c>
+      <c r="C396" t="s">
+        <v>166</v>
+      </c>
+      <c r="D396">
+        <v>11918010</v>
+      </c>
+      <c r="E396">
+        <v>916834</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5">
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397" t="s">
+        <v>167</v>
+      </c>
+      <c r="D397">
+        <v>6984613</v>
+      </c>
+      <c r="E397">
+        <v>1750941</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5">
+      <c r="B398" t="s">
+        <v>28</v>
+      </c>
+      <c r="C398" t="s">
+        <v>168</v>
+      </c>
+      <c r="D398">
+        <v>9344784</v>
+      </c>
+      <c r="E398">
+        <v>1138926</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5">
+      <c r="B399" t="s">
+        <v>29</v>
+      </c>
+      <c r="C399" t="s">
+        <v>169</v>
+      </c>
+      <c r="D399">
+        <v>10566032</v>
+      </c>
+      <c r="E399">
+        <v>1269374</v>
       </c>
     </row>
   </sheetData>
